--- a/data/trans_orig/P21D1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>73567</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56974</v>
+        <v>57230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93694</v>
+        <v>91398</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2553335259348665</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.197743374155727</v>
+        <v>0.19863198666499</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3251875195689741</v>
+        <v>0.3172176627701051</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -762,19 +762,19 @@
         <v>55323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43666</v>
+        <v>42815</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69766</v>
+        <v>68409</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1706669328009951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1347066253767321</v>
+        <v>0.1320788098868645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2152197739044654</v>
+        <v>0.2110355597210048</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -783,19 +783,19 @@
         <v>128891</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>109362</v>
+        <v>108806</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>150265</v>
+        <v>150655</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2105086513966393</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1786136451949902</v>
+        <v>0.1777049614975065</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2454177690678506</v>
+        <v>0.2460545136439568</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>200437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>180924</v>
+        <v>179418</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>218080</v>
+        <v>217181</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6956641879864757</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6279404209332571</v>
+        <v>0.6227142846086612</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7568984223669469</v>
+        <v>0.753778039202769</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>440</v>
@@ -833,19 +833,19 @@
         <v>265521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248459</v>
+        <v>251696</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276764</v>
+        <v>278963</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.819104558051593</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7664701431255211</v>
+        <v>0.7764563750037448</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.853788600145256</v>
+        <v>0.8605716026161542</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>665</v>
@@ -854,19 +854,19 @@
         <v>465958</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>441822</v>
+        <v>440570</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>487283</v>
+        <v>486611</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7610169900340598</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7215976238579268</v>
+        <v>0.7195522937870287</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7958466336745549</v>
+        <v>0.7947493166011648</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>14119</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6250</v>
+        <v>5871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30276</v>
+        <v>30117</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04900228607865782</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02169191045368036</v>
+        <v>0.02037676724786577</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1050790662729287</v>
+        <v>0.1045273189557343</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
         <v>3316</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>937</v>
+        <v>852</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11374</v>
+        <v>11349</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01022850914741178</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002890286367543236</v>
+        <v>0.002627176255733495</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0350888625671117</v>
+        <v>0.03501114615489355</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -925,19 +925,19 @@
         <v>17434</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8583</v>
+        <v>9442</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34676</v>
+        <v>34754</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02847435856930108</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01401849625891354</v>
+        <v>0.0154215451014361</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05663448802981425</v>
+        <v>0.05676131536608632</v>
       </c>
     </row>
     <row r="7">
@@ -1076,19 +1076,19 @@
         <v>139281</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>117498</v>
+        <v>118423</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>163682</v>
+        <v>160966</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2962105689491077</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2498845806555295</v>
+        <v>0.2518518439643743</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3481058258153664</v>
+        <v>0.342329922793023</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>115</v>
@@ -1097,19 +1097,19 @@
         <v>91850</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>78092</v>
+        <v>77199</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>109641</v>
+        <v>109487</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1824616215982177</v>
+        <v>0.1824616215982176</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1551319143000294</v>
+        <v>0.153356435389672</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2178036526346506</v>
+        <v>0.2174981991057404</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>225</v>
@@ -1118,19 +1118,19 @@
         <v>231130</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>204260</v>
+        <v>204982</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>257273</v>
+        <v>259762</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2373975022922825</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2097987195808486</v>
+        <v>0.2105398823454397</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2642488420168079</v>
+        <v>0.2668050469186942</v>
       </c>
     </row>
     <row r="10">
@@ -1147,19 +1147,19 @@
         <v>324223</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>300348</v>
+        <v>300736</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>346347</v>
+        <v>345980</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6895306828316848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6387547655193129</v>
+        <v>0.6395798831992628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7365832374508051</v>
+        <v>0.7358018576616119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>567</v>
@@ -1168,19 +1168,19 @@
         <v>393431</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>373643</v>
+        <v>372948</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>409102</v>
+        <v>408562</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7815569641275153</v>
+        <v>0.7815569641275151</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7422469838221997</v>
+        <v>0.7408664024519568</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8126881039338205</v>
+        <v>0.8116148482975055</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>877</v>
@@ -1189,19 +1189,19 @@
         <v>717653</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>691501</v>
+        <v>689227</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>744196</v>
+        <v>745800</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7371122028552112</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7102511921626634</v>
+        <v>0.7079153655919317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7643749904197921</v>
+        <v>0.7660223866633908</v>
       </c>
     </row>
     <row r="11">
@@ -1218,19 +1218,19 @@
         <v>6705</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2612</v>
+        <v>2374</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15177</v>
+        <v>14596</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01425874821920743</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00555524690045265</v>
+        <v>0.00504874295406751</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03227694095776162</v>
+        <v>0.03104211499999809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1239,19 +1239,19 @@
         <v>18113</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11494</v>
+        <v>11584</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27128</v>
+        <v>28438</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03598141427426713</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02283277174674731</v>
+        <v>0.02301187458300431</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05389037919935023</v>
+        <v>0.05649191364788347</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -1260,19 +1260,19 @@
         <v>24817</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16268</v>
+        <v>16556</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36450</v>
+        <v>35879</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02549029485250631</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01670928925137925</v>
+        <v>0.01700475978956756</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03743819769817164</v>
+        <v>0.0368521419199752</v>
       </c>
     </row>
     <row r="12">
@@ -1411,19 +1411,19 @@
         <v>73100</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55178</v>
+        <v>55651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99057</v>
+        <v>95753</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1941141286875928</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.146522173148175</v>
+        <v>0.1477783521075721</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2630403528237153</v>
+        <v>0.2542660600614761</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -1432,19 +1432,19 @@
         <v>55626</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43282</v>
+        <v>43358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>71647</v>
+        <v>72354</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1469065381653506</v>
+        <v>0.1469065381653505</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1143067837079178</v>
+        <v>0.1145075605415057</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1892165959927086</v>
+        <v>0.1910840530195142</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>111</v>
@@ -1453,19 +1453,19 @@
         <v>128726</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>105674</v>
+        <v>106206</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154193</v>
+        <v>154550</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1704457868016598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1399226637970992</v>
+        <v>0.1406271083757999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2041658480150561</v>
+        <v>0.2046386285636971</v>
       </c>
     </row>
     <row r="15">
@@ -1482,19 +1482,19 @@
         <v>300194</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>275429</v>
+        <v>277893</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>319186</v>
+        <v>318443</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7971507220092252</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7313869271481209</v>
+        <v>0.7379311841867542</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8475813491071321</v>
+        <v>0.8456092548859979</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>418</v>
@@ -1503,19 +1503,19 @@
         <v>316061</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>299999</v>
+        <v>299715</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>329054</v>
+        <v>327985</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.8347077697803905</v>
+        <v>0.8347077697803903</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7922872128798478</v>
+        <v>0.7915378964373696</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8690201412136741</v>
+        <v>0.8661974611902961</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>680</v>
@@ -1524,19 +1524,19 @@
         <v>616255</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>590187</v>
+        <v>589434</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>640391</v>
+        <v>637982</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.8159805973966471</v>
+        <v>0.815980597396647</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7814644839871873</v>
+        <v>0.7804675944714935</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8479397677793624</v>
+        <v>0.8447491295874044</v>
       </c>
     </row>
     <row r="16">
@@ -1553,19 +1553,19 @@
         <v>3290</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>937</v>
+        <v>912</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9351</v>
+        <v>9109</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008735149303182078</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00248819616695617</v>
+        <v>0.002421422772638032</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02483202443484298</v>
+        <v>0.02418957052758871</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1574,19 +1574,19 @@
         <v>6213</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2996</v>
+        <v>2739</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13039</v>
+        <v>11709</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01640866672431155</v>
+        <v>0.01640866672431154</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007911961999622227</v>
+        <v>0.007234568875675344</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03443428978066902</v>
+        <v>0.03092398112916282</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1595,19 +1595,19 @@
         <v>9503</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4719</v>
+        <v>5060</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17234</v>
+        <v>16432</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01258239996312381</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006248568203904587</v>
+        <v>0.006699544273473411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02281896130018768</v>
+        <v>0.02175778533244177</v>
       </c>
     </row>
     <row r="17">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3806</v>
+        <v>4199</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.001977025329947544</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01005063561772366</v>
+        <v>0.01108829044479343</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -1661,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3823</v>
+        <v>4561</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.0009912158385694597</v>
+        <v>0.0009912158385694595</v>
       </c>
       <c r="V17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.005062054684870232</v>
+        <v>0.00603972242614683</v>
       </c>
     </row>
     <row r="18">
@@ -1762,19 +1762,19 @@
         <v>133481</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113226</v>
+        <v>113640</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>157199</v>
+        <v>156166</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3080150248926825</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.261274297903844</v>
+        <v>0.2622315497820377</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3627454375528148</v>
+        <v>0.3603621300891119</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>128</v>
@@ -1783,19 +1783,19 @@
         <v>110165</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>92373</v>
+        <v>91587</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>127526</v>
+        <v>130178</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2244907554146526</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1882350160884747</v>
+        <v>0.1866322179444081</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.259868262675399</v>
+        <v>0.2652722138855785</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>237</v>
@@ -1804,19 +1804,19 @@
         <v>243646</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>215691</v>
+        <v>212347</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>275494</v>
+        <v>271474</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2636599956894618</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2334086673210888</v>
+        <v>0.2297897984468139</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2981231470385073</v>
+        <v>0.2937736545126218</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>293172</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>269317</v>
+        <v>270252</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>313877</v>
+        <v>313411</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6765098637745559</v>
+        <v>0.6765098637745558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6214639104141696</v>
+        <v>0.6236219222267084</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7242894667748516</v>
+        <v>0.7232123817321993</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>527</v>
@@ -1854,19 +1854,19 @@
         <v>373416</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>355512</v>
+        <v>353733</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>391915</v>
+        <v>390896</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7609332274672049</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7244488736987633</v>
+        <v>0.7208244597675912</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7986302252501122</v>
+        <v>0.7965529413986517</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>839</v>
@@ -1875,19 +1875,19 @@
         <v>666587</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>636054</v>
+        <v>638128</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>696633</v>
+        <v>696964</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.721342351211115</v>
+        <v>0.7213423512111152</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.688300681573727</v>
+        <v>0.6905451480483941</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7538561599710969</v>
+        <v>0.7542138262740666</v>
       </c>
     </row>
     <row r="21">
@@ -1904,19 +1904,19 @@
         <v>6706</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2036</v>
+        <v>2125</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15898</v>
+        <v>17301</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01547511133276164</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00469836356954977</v>
+        <v>0.004904238317009603</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03668652432980691</v>
+        <v>0.0399237250870264</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1925,19 +1925,19 @@
         <v>6451</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3253</v>
+        <v>3361</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11639</v>
+        <v>12298</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01314489640085609</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006629376771829222</v>
+        <v>0.006848063424250384</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02371738102441892</v>
+        <v>0.0250595115311559</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -1946,19 +1946,19 @@
         <v>13157</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7543</v>
+        <v>7199</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25030</v>
+        <v>23799</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01423766559393194</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00816252631363548</v>
+        <v>0.007790268681904578</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02708552674402228</v>
+        <v>0.02575429515170008</v>
       </c>
     </row>
     <row r="22">
@@ -1991,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3536</v>
+        <v>3256</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.001431120717286516</v>
+        <v>0.001431120717286517</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.007206233056397306</v>
+        <v>0.006634121576360515</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4161</v>
+        <v>3505</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0007599875054911386</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004502781497217649</v>
+        <v>0.003793088879737711</v>
       </c>
     </row>
     <row r="23">
@@ -2113,19 +2113,19 @@
         <v>419429</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>381944</v>
+        <v>376510</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>461970</v>
+        <v>460341</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2674465289178282</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2435443972370072</v>
+        <v>0.2400790102335602</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2945721609668509</v>
+        <v>0.293533490076435</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>377</v>
@@ -2134,19 +2134,19 @@
         <v>312965</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>284244</v>
+        <v>284165</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>346049</v>
+        <v>345780</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.184429202178375</v>
+        <v>0.1844292021783751</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.167504514437911</v>
+        <v>0.1674578575921206</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2039258294824525</v>
+        <v>0.2037672083616757</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>706</v>
@@ -2155,19 +2155,19 @@
         <v>732394</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>679175</v>
+        <v>684462</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>781082</v>
+        <v>784942</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2243022632762941</v>
+        <v>0.224302263276294</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2080035175207635</v>
+        <v>0.2096226842049896</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2392134547576317</v>
+        <v>0.240395422453235</v>
       </c>
     </row>
     <row r="25">
@@ -2184,19 +2184,19 @@
         <v>1118025</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1073770</v>
+        <v>1077860</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1158617</v>
+        <v>1162882</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7129018885138025</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6846828525331358</v>
+        <v>0.6872907153385354</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7387850251487478</v>
+        <v>0.7415041195595438</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1952</v>
@@ -2205,19 +2205,19 @@
         <v>1348428</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1313004</v>
+        <v>1315557</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1378575</v>
+        <v>1377557</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7946253116763022</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7737501277238397</v>
+        <v>0.7752544454397421</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8123908838737494</v>
+        <v>0.8117908777202378</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3061</v>
@@ -2226,19 +2226,19 @@
         <v>2466454</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2416613</v>
+        <v>2411780</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2524129</v>
+        <v>2519249</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7553737099580691</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7401095440479488</v>
+        <v>0.7386295181432686</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7730373996097329</v>
+        <v>0.771542745746402</v>
       </c>
     </row>
     <row r="26">
@@ -2255,19 +2255,19 @@
         <v>30819</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18828</v>
+        <v>18438</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48042</v>
+        <v>48785</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01965158256836929</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01200541340545079</v>
+        <v>0.01175682815705855</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03063362281566239</v>
+        <v>0.03110719371033346</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -2276,19 +2276,19 @@
         <v>34092</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24214</v>
+        <v>24486</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47589</v>
+        <v>45627</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0200904758957751</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01426902084943711</v>
+        <v>0.01442935214745227</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02804429690789336</v>
+        <v>0.02688786111318775</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>67</v>
@@ -2297,19 +2297,19 @@
         <v>64911</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>49998</v>
+        <v>48716</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>85398</v>
+        <v>86941</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01987967628144827</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01531248207363134</v>
+        <v>0.0149197724659703</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02615387228032988</v>
+        <v>0.02662655174481654</v>
       </c>
     </row>
     <row r="27">
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5147</v>
+        <v>4521</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0008550102495476257</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.003032907023771108</v>
+        <v>0.002664166611066165</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5706</v>
+        <v>4462</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0004443504841885753</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.00174751727754155</v>
+        <v>0.001366514325174383</v>
       </c>
     </row>
     <row r="28">
